--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T16:31:57+00:00</t>
+    <t>2023-03-19T13:34:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T13:34:55+00:00</t>
+    <t>2023-03-19T13:45:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T13:45:53+00:00</t>
+    <t>2023-03-19T13:54:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T13:54:37+00:00</t>
+    <t>2023-03-19T13:59:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T13:59:04+00:00</t>
+    <t>2023-03-19T14:12:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T14:12:08+00:00</t>
+    <t>2023-03-19T14:24:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T14:24:01+00:00</t>
+    <t>2023-03-19T14:30:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T14:30:17+00:00</t>
+    <t>2023-03-19T14:44:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T14:44:32+00:00</t>
+    <t>2023-03-19T15:09:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:09:40+00:00</t>
+    <t>2023-03-19T15:54:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:54:08+00:00</t>
+    <t>2023-03-19T16:05:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T16:05:57+00:00</t>
+    <t>2023-03-20T11:16:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -411,7 +411,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-cdr-maj:Elément requis lorsque le flux envoyé correspond à une mise à jour des données d’une fiche {null}</t>
+constr-cdr-maj:Elément requis lorsque le flux envoyé correspond à une mise à jour des données d’une fiche {f:meta/f:versionId}</t>
   </si>
   <si>
     <t>version : [0..1] Numerique</t>
@@ -647,7 +647,7 @@
     <t>isArchived</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/pdsm/StructureDefinition/PDSmIsArchived}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/pdsm/StructureDefinition/pdsm-is-archived}
 </t>
   </si>
   <si>
@@ -838,7 +838,7 @@
  TRE_A04-TypeDocument-LOINC, OID : 2.16.840.1.113883.6.1
  TRE_A12-NomenclatureASTM, OID : ASTM
 Les valeurs possibles peuvent être restreintes en fonction du jeu de valeurs correspondant mis à disposition par le projet (exemple : JDV_J66-TypeCode-DMP).
-En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J07-XdsTypeCode-CISIS peut être utilisé. {null}</t>
+En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J07-XdsTypeCode-CISIS peut être utilisé. {f:type}</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -896,7 +896,7 @@
 -	TRE_A03-ClasseDocument-CISIS, OID : 1.2.250.1.213.1.1.4.1
 -	TRE_A10-NomenclatureURN, OID : URN
 Les valeurs possibles peuvent être restreintes en fonction du jeu de valeurs correspondant mis à disposition par le projet (exemple : JDV_J57-ClassCode-DMP).
-En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J06-XdsClassCode-CISIS peut être utilisé. {null}</t>
+En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J06-XdsClassCode-CISIS peut être utilisé. {f:category}</t>
   </si>
   <si>
     <t>Composition.class</t>
@@ -933,7 +933,7 @@
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 constr-subj-ref:La ressource référencée doit être présente sous l’élément DocumentReference.contained.
 Référence contrainte au profil FrPatient
-Cette même ressource est référencée depuis context.sourcePatientInfo. {null}</t>
+Cette même ressource est référencée depuis context.sourcePatientInfo. {f:subject}</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -1009,7 +1009,7 @@
 Reference contrainte à :
 - PractitionerRole : Dans le cas d’un auteur professionnel, c’est le profil PractitionerRoleOrganizationalRoleRASSreprésentant la situation d’exercice qui doit être référencé. Lui-même fera le lien avec le profil PractitionerRoleProfessionalRoleRASS représentant l’exercice professionnel et avec FrPractitioner.
 - Device,
-- Patient contrainte au profil FrPatient. {null}</t>
+- Patient contrainte au profil FrPatient. {f:author}</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -1053,7 +1053,7 @@
 constr-bind-authenticator:Cardinalité contrainte à [1..1]
 Référence contrainte au profil 
 - PractitionerRole : Dans le cas d’un authentificateur professionnel, c’est le profil PractitionerRoleOrganizationalRoleRASS représentant la situation d’exercice qui doit être référencé. Lui-même fera le lien avec le profil PractitionerRoleProfessionalRoleRASS représentant l’exercice professionnel et avec FrPractitioner.
--  Organization contrainte au profil FrOrganization. {null}</t>
+-  Organization contrainte au profil FrOrganization. {f:authenticator}</t>
   </si>
   <si>
     <t>Composition.attester</t>
@@ -1119,7 +1119,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-cdr-rempl:Elément requis lorsque le flux envoyé correspond au remplacement d'un document {null}constr-bind-relatesTo:Cardinalité contrainte à [1..1] lorsque le flux envoyé correspond au remplacement d’un document. {null}</t>
+constr-cdr-rempl:Elément requis lorsque le flux envoyé correspond au remplacement d'un document {f:relatesTo}constr-bind-relatesTo:Cardinalité contrainte à [1..1] lorsque le flux envoyé correspond au remplacement d’un document. {f:relatesTo}</t>
   </si>
   <si>
     <t>Composition.relatesTo</t>
@@ -1204,7 +1204,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-bind-relatesToTarget:Référence contrainte au profil PDSm_ComprehensiveDocumentReference {null}</t>
+constr-bind-relatesToTarget:Référence contrainte au profil PDSm_ComprehensiveDocumentReference {f:relatesTo/f:target}</t>
   </si>
   <si>
     <t>Composition.relatesTo.target</t>
@@ -1266,7 +1266,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-bind-securityLabel:Les codes pour cet élément doivent provenir du ValueSet spécifié par le standard. Lorsqu’aucun code ne correspond au concept recherché, un code provenant de la terminologie de référence TRE_A07-StatusVisibiliteDocument, OID : 1.2.250.1.213.1.1.4.13 peut être utilisé. {null}</t>
+constr-bind-securityLabel:Les codes pour cet élément doivent provenir du ValueSet spécifié par le standard. Lorsqu’aucun code ne correspond au concept recherché, un code provenant de la terminologie de référence TRE_A07-StatusVisibiliteDocument, OID : 1.2.250.1.213.1.1.4.13 peut être utilisé. {f:securityLabel}</t>
   </si>
   <si>
     <t>Composition.confidentiality, Composition.meta.security</t>
@@ -1459,7 +1459,7 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 constr-bind-attachmenturl:Dans le cas de l’ajout de document, l’url fait référence à la ressource Binary (« Binary/[id] »).
-Dans le cas de la recherche, il s’agit de l’URL permettant d’accéder au document {null}</t>
+Dans le cas de la recherche, il s’agit de l’URL permettant d’accéder au document {f:content/f:attachment/f:url}</t>
   </si>
   <si>
     <t>./reference/literal</t>
@@ -1603,7 +1603,7 @@
 - TRE_A09-DICOMuidRegistry, OID : 1.2.840.10008.2.6.1
 - TRE_A10-NomenclatureURN, OID : URN
 Les valeurs possibles peuvent être restreintes en fonction du jeu de valeurs correspondant mis à disposition par le projet (exemple : JDV_J60-FormatCode-DMP).
-En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J10-XdsFormatCode-CISIS peut être utilisé. {null}</t>
+En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J10-XdsFormatCode-CISIS peut être utilisé. {f:content/f:format}</t>
   </si>
   <si>
     <t>Composition.meta.profile</t>
@@ -1692,7 +1692,7 @@
 constr-bind-context-event:Nomenclatures utilisées :
 - CCAM pour les actes médicaux (OID="1.2.250.1.213.2.5");
 - CIM-10 pour les diagnostics de pathologie (OID="2.16.840.1.113883.6.3").
-- TRE_A00-ProducteurDocNonPS pour les documents d'expression personnelle du patient. {null}</t>
+- TRE_A00-ProducteurDocNonPS pour les documents d'expression personnelle du patient. {f:context/f:event}</t>
   </si>
   <si>
     <t>Composition.event.code</t>
@@ -1823,7 +1823,7 @@
 -	TRE_A00-ProducteurDocNonPS, OID : 1.2.250.1.213.1.1.4.6 (lorsque l’auteur du document est un patient ou un équipement sous sa responsabilité)
 -	TRE_R02-SecteurActivite, OID : 1.2.250.1.71.4.2.4 (lorsque l’auteur du document est un professionnel ou un équipement sous sa responsabilité)
 Les valeurs possibles peuvent être restreintes en fonction du jeu de valeurs correspondant mis à disposition par le projet (exemple : JDV_J61-HealthcareFacilityTypeCode-DMP).
-En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J02-XdsHealthcareFacilityTypeCode-CISIS peut être utilisé. {null}</t>
+En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J02-XdsHealthcareFacilityTypeCode-CISIS peut être utilisé. {f:context/f:facilityType or f:context/f:practiceSetting}</t>
   </si>
   <si>
     <t>usually from a mapping to a local ValueSet</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T11:16:14+00:00</t>
+    <t>2023-03-21T09:14:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-21T09:14:35+00:00</t>
+    <t>2023-03-21T16:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-21T16:58:14+00:00</t>
+    <t>2023-03-22T10:52:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T10:52:43+00:00</t>
+    <t>2023-03-23T14:47:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:47:57+00:00</t>
+    <t>2023-03-23T15:06:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T15:06:11+00:00</t>
+    <t>2023-03-23T15:06:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T15:06:38+00:00</t>
+    <t>2023-03-23T16:08:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T16:08:18+00:00</t>
+    <t>2023-03-24T13:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-24T13:28:56+00:00</t>
+    <t>2023-03-25T16:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-04T15:54:52+00:00</t>
+    <t>2023-07-11T09:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-11T09:02:19+00:00</t>
+    <t>2023-07-11T09:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3100" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="580">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-11T09:02:50+00:00</t>
+    <t>2023-07-21T12:08:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -263,7 +263,7 @@
     <t>DocumentReference.meta.versionId</t>
   </si>
   <si>
-    <t>Numéro de version de la fiche d’un document attribués par le système cible. La valeur de la métadonnée version est égale à 1 pour la première version de la fiche.</t>
+    <t>Numéro de version de la fiche d’un document attribué par le système cible. La valeur de la métadonnée version est égale à 1 pour la première version de la fiche. Cet élément est requis lorsque le flux envoyé correspond à une mise à jour des données d’une fiche.</t>
   </si>
   <si>
     <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
@@ -275,8 +275,8 @@
     <t>Meta.versionId</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-cdr-maj:Elément requis lorsque le flux envoyé correspond à une mise à jour des données d’une fiche {f:meta/f:versionId}</t>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
   </si>
   <si>
     <t>version : [0..1] Numerique</t>
@@ -301,10 +301,6 @@
     <t>Meta.lastUpdated</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
     <t>DocumentReference.meta.source</t>
   </si>
   <si>
@@ -475,8 +471,8 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t>Patient {http://interopsante.org/fhir/StructureDefinition/FrPatient}
-DevicePractitionerRole {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-organizationalRole-rass|https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-professionalRole-rass}Organization {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/organization-rass}Practitioner {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitioner-rass}</t>
+    <t xml:space="preserve">Resource
+</t>
   </si>
   <si>
     <t>Contained, inline Resources</t>
@@ -689,9 +685,6 @@
   </si>
   <si>
     <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
-  </si>
-  <si>
-    <t>XDS typeCode CI-SIS</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J07-XdsTypeCode-CISIS/FHIR/JDV-J07-XdsTypeCode-CISIS</t>
@@ -785,11 +778,11 @@
     <t>DocumentReference.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrPatient) &lt;&lt;contained&gt;&gt;
+    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrPatient)
 </t>
   </si>
   <si>
-    <t>Représente l'identifiant du patient.</t>
+    <t>Référence vers le patient concerné par le document.</t>
   </si>
   <si>
     <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
@@ -1734,6 +1727,10 @@
   </si>
   <si>
     <t>DocumentReference.context.sourcePatientInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrPatient) &lt;&lt;contained&gt;&gt;
+</t>
   </si>
   <si>
     <t>Référence vers la ressource Patient titulaire du dossier.</t>
@@ -2192,7 +2189,7 @@
     <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="207.71875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3097,7 +3094,7 @@
         <v>35</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>35</v>
@@ -3129,10 +3126,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3155,16 +3152,16 @@
         <v>50</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3214,7 +3211,7 @@
         <v>35</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -3226,7 +3223,7 @@
         <v>35</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>35</v>
@@ -3258,10 +3255,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3284,16 +3281,16 @@
         <v>50</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3343,7 +3340,7 @@
         <v>35</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -3355,7 +3352,7 @@
         <v>35</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>35</v>
@@ -3379,7 +3376,7 @@
         <v>35</v>
       </c>
       <c r="AR9" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AS9" t="s" s="2">
         <v>35</v>
@@ -3387,10 +3384,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3413,16 +3410,16 @@
         <v>50</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3448,31 +3445,31 @@
         <v>35</v>
       </c>
       <c r="X10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Y10" t="s" s="2">
+      <c r="Z10" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Z10" t="s" s="2">
+      <c r="AA10" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF10" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -3484,7 +3481,7 @@
         <v>35</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>35</v>
@@ -3516,10 +3513,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3542,16 +3539,16 @@
         <v>50</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3577,31 +3574,31 @@
         <v>35</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y11" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="Z11" t="s" s="2">
+      <c r="AA11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -3613,7 +3610,7 @@
         <v>35</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>35</v>
@@ -3645,10 +3642,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3671,16 +3668,16 @@
         <v>50</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3730,7 +3727,7 @@
         <v>35</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
@@ -3742,7 +3739,7 @@
         <v>35</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>35</v>
@@ -3774,10 +3771,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3800,16 +3797,16 @@
         <v>35</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3835,32 +3832,32 @@
         <v>35</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AA13" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
       </c>
@@ -3871,7 +3868,7 @@
         <v>35</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>35</v>
@@ -3903,14 +3900,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3929,16 +3926,16 @@
         <v>35</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3988,28 +3985,28 @@
         <v>35</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>35</v>
@@ -4032,14 +4029,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -4058,16 +4055,16 @@
         <v>35</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4117,7 +4114,7 @@
         <v>35</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
@@ -4138,7 +4135,7 @@
         <v>35</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>35</v>
@@ -4161,10 +4158,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4190,10 +4187,10 @@
         <v>69</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4242,7 +4239,7 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
@@ -4286,13 +4283,13 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="C17" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>35</v>
@@ -4314,13 +4311,13 @@
         <v>35</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4371,7 +4368,7 @@
         <v>35</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
@@ -4380,7 +4377,7 @@
         <v>37</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>77</v>
@@ -4410,15 +4407,15 @@
         <v>35</v>
       </c>
       <c r="AS17" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4444,10 +4441,10 @@
         <v>69</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4498,7 +4495,7 @@
         <v>35</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
@@ -4542,10 +4539,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4568,19 +4565,19 @@
         <v>35</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>35</v>
@@ -4629,7 +4626,7 @@
         <v>35</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
@@ -4638,10 +4635,10 @@
         <v>49</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>35</v>
@@ -4650,33 +4647,33 @@
         <v>35</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP19" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AN19" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP19" t="s" s="2">
+      <c r="AQ19" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR19" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AQ19" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR19" t="s" s="2">
+      <c r="AS19" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AS19" t="s" s="2">
-        <v>174</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4699,13 +4696,13 @@
         <v>50</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4744,7 +4741,7 @@
         <v>35</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
@@ -4754,7 +4751,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
@@ -4766,45 +4763,45 @@
         <v>35</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AL20" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO20" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AN20" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO20" t="s" s="2">
+      <c r="AP20" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AP20" t="s" s="2">
+      <c r="AQ20" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AQ20" t="s" s="2">
+      <c r="AR20" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AS20" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AR20" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AS20" t="s" s="2">
-        <v>185</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="C21" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>35</v>
@@ -4826,13 +4823,13 @@
         <v>35</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="M21" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4883,7 +4880,7 @@
         <v>35</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
@@ -4892,10 +4889,10 @@
         <v>37</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>35</v>
@@ -4904,16 +4901,16 @@
         <v>35</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP21" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AQ21" t="s" s="2">
         <v>35</v>
@@ -4927,10 +4924,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4953,16 +4950,16 @@
         <v>50</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4988,76 +4985,76 @@
         <v>35</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AA22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AN22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO22" t="s" s="2">
+      <c r="AP22" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AP22" t="s" s="2">
+      <c r="AQ22" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AQ22" t="s" s="2">
-        <v>200</v>
-      </c>
       <c r="AR22" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AS22" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5080,16 +5077,16 @@
         <v>50</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5115,61 +5112,61 @@
         <v>35</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y23" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="Z23" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="Z23" t="s" s="2">
+      <c r="AA23" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AA23" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO23" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AP23" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AQ23" t="s" s="2">
         <v>35</v>
@@ -5183,10 +5180,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5209,16 +5206,16 @@
         <v>50</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5244,82 +5241,80 @@
         <v>35</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="Y24" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="Y24" s="2"/>
+      <c r="Z24" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Z24" t="s" s="2">
+      <c r="AK24" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AA24" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AP24" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AO24" t="s" s="2">
+      <c r="AQ24" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AP24" t="s" s="2">
+      <c r="AR24" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AQ24" t="s" s="2">
+      <c r="AS24" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AR24" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AS24" t="s" s="2">
-        <v>226</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -5338,16 +5333,16 @@
         <v>50</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5373,13 +5368,13 @@
         <v>35</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>35</v>
@@ -5397,7 +5392,7 @@
         <v>35</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
@@ -5409,42 +5404,42 @@
         <v>35</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AK25" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AP25" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ25" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AR25" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AO25" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ25" t="s" s="2">
+      <c r="AS25" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AR25" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AS25" t="s" s="2">
-        <v>240</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5467,13 +5462,13 @@
         <v>50</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5524,7 +5519,7 @@
         <v>35</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
@@ -5536,46 +5531,46 @@
         <v>35</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AN26" t="s" s="2">
+      <c r="AP26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AO26" t="s" s="2">
+      <c r="AQ26" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AP26" t="s" s="2">
+      <c r="AR26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AS26" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AQ26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AR26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AS26" t="s" s="2">
-        <v>253</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5597,13 +5592,13 @@
         <v>86</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5653,7 +5648,7 @@
         <v>35</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
@@ -5665,22 +5660,22 @@
         <v>35</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>35</v>
@@ -5697,10 +5692,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5723,16 +5718,16 @@
         <v>50</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5782,7 +5777,7 @@
         <v>35</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
@@ -5794,42 +5789,42 @@
         <v>35</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP28" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AQ28" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AO28" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP28" t="s" s="2">
+      <c r="AR28" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AS28" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AQ28" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AR28" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AS28" t="s" s="2">
-        <v>275</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5852,16 +5847,16 @@
         <v>35</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5911,7 +5906,7 @@
         <v>35</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
@@ -5923,42 +5918,42 @@
         <v>35</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AK29" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AP29" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AO29" t="s" s="2">
+      <c r="AQ29" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AP29" t="s" s="2">
+      <c r="AR29" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AS29" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AQ29" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AR29" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AS29" t="s" s="2">
-        <v>288</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5981,16 +5976,16 @@
         <v>35</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -6040,7 +6035,7 @@
         <v>35</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
@@ -6052,31 +6047,31 @@
         <v>35</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO30" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP30" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ30" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR30" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR30" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AS30" t="s" s="2">
         <v>35</v>
@@ -6084,10 +6079,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6110,16 +6105,16 @@
         <v>50</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6169,7 +6164,7 @@
         <v>35</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
@@ -6181,31 +6176,31 @@
         <v>35</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AK31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ31" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AM31" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ31" t="s" s="2">
-        <v>305</v>
-      </c>
       <c r="AR31" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AS31" t="s" s="2">
         <v>35</v>
@@ -6213,10 +6208,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6340,10 +6335,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6469,14 +6464,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6498,16 +6493,16 @@
         <v>69</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>35</v>
@@ -6556,7 +6551,7 @@
         <v>35</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
@@ -6577,7 +6572,7 @@
         <v>35</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>35</v>
@@ -6600,10 +6595,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6626,16 +6621,16 @@
         <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6661,78 +6656,78 @@
         <v>35</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="Z35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AA35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ35" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AR35" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AN35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ35" t="s" s="2">
+      <c r="AS35" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AR35" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AS35" t="s" s="2">
-        <v>324</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6755,13 +6750,13 @@
         <v>50</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6812,7 +6807,7 @@
         <v>35</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>49</v>
@@ -6824,42 +6819,42 @@
         <v>35</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AK36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ36" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AR36" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AN36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ36" t="s" s="2">
+      <c r="AS36" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AR36" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AS36" t="s" s="2">
-        <v>334</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6885,16 +6880,16 @@
         <v>62</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>35</v>
@@ -6943,7 +6938,7 @@
         <v>35</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
@@ -6955,7 +6950,7 @@
         <v>35</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>35</v>
@@ -6964,33 +6959,33 @@
         <v>35</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO37" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP37" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AQ37" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AN37" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP37" t="s" s="2">
+      <c r="AR37" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AS37" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AQ37" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AR37" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AS37" t="s" s="2">
-        <v>343</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7013,19 +7008,19 @@
         <v>50</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>35</v>
@@ -7050,14 +7045,14 @@
         <v>35</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Y38" t="s" s="2">
+      <c r="Z38" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="AA38" t="s" s="2">
         <v>35</v>
       </c>
@@ -7074,7 +7069,7 @@
         <v>35</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
@@ -7086,42 +7081,42 @@
         <v>35</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AK38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP38" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AQ38" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AO38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP38" t="s" s="2">
+      <c r="AR38" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AS38" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AQ38" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AR38" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AS38" t="s" s="2">
-        <v>355</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7144,13 +7139,13 @@
         <v>50</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7201,7 +7196,7 @@
         <v>35</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>49</v>
@@ -7213,16 +7208,16 @@
         <v>35</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>35</v>
@@ -7245,10 +7240,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7372,10 +7367,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7501,14 +7496,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7530,16 +7525,16 @@
         <v>69</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>35</v>
@@ -7588,7 +7583,7 @@
         <v>35</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
@@ -7609,7 +7604,7 @@
         <v>35</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>35</v>
@@ -7632,10 +7627,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7658,13 +7653,13 @@
         <v>50</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7715,7 +7710,7 @@
         <v>35</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>49</v>
@@ -7733,22 +7728,22 @@
         <v>35</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AO43" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP43" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AM43" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AQ43" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AQ43" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AR43" t="s" s="2">
         <v>35</v>
@@ -7759,10 +7754,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7886,10 +7881,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -8015,10 +8010,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8041,17 +8036,17 @@
         <v>50</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>35</v>
@@ -8064,79 +8059,79 @@
         <v>35</v>
       </c>
       <c r="T46" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="Z46" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="U46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="Y46" t="s" s="2">
+      <c r="AA46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF46" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="Z46" t="s" s="2">
+      <c r="AG46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AA46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP46" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AQ46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR46" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP46" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AQ46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR46" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AS46" t="s" s="2">
         <v>35</v>
@@ -8144,10 +8139,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8170,17 +8165,17 @@
         <v>50</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>35</v>
@@ -8193,90 +8188,90 @@
         <v>35</v>
       </c>
       <c r="T47" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="U47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR47" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AG47" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AS47" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR47" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AS47" t="s" s="2">
-        <v>393</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8299,19 +8294,19 @@
         <v>35</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>35</v>
@@ -8360,37 +8355,37 @@
         <v>35</v>
       </c>
       <c r="AF48" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP48" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP48" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>35</v>
@@ -8404,10 +8399,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8430,19 +8425,19 @@
         <v>50</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>35</v>
@@ -8455,90 +8450,90 @@
         <v>35</v>
       </c>
       <c r="T49" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="U49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF49" t="s" s="2">
+      <c r="AK49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AG49" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP49" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AK49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AQ49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR49" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AN49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP49" t="s" s="2">
+      <c r="AS49" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AQ49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR49" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AS49" t="s" s="2">
-        <v>415</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8561,19 +8556,19 @@
         <v>50</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>35</v>
@@ -8622,43 +8617,43 @@
         <v>35</v>
       </c>
       <c r="AF50" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP50" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ50" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR50" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ50" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR50" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="AS50" t="s" s="2">
         <v>35</v>
@@ -8666,10 +8661,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8692,19 +8687,19 @@
         <v>50</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>35</v>
@@ -8753,43 +8748,43 @@
         <v>35</v>
       </c>
       <c r="AF51" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP51" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ51" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR51" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR51" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="AS51" t="s" s="2">
         <v>35</v>
@@ -8797,10 +8792,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8826,14 +8821,14 @@
         <v>62</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>35</v>
@@ -8846,90 +8841,90 @@
         <v>35</v>
       </c>
       <c r="T52" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="U52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR52" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AS52" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR52" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AS52" t="s" s="2">
-        <v>441</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8952,17 +8947,17 @@
         <v>50</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>35</v>
@@ -9011,54 +9006,54 @@
         <v>35</v>
       </c>
       <c r="AF53" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ53" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR53" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AS53" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP53" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ53" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR53" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AS53" t="s" s="2">
-        <v>449</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9081,16 +9076,16 @@
         <v>50</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -9116,78 +9111,78 @@
         <v>35</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="Z54" t="s" s="2">
+      <c r="AK54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AA54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="AK54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ54" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="AM54" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AR54" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AS54" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ54" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AR54" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AS54" t="s" s="2">
-        <v>460</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9210,16 +9205,16 @@
         <v>50</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9269,7 +9264,7 @@
         <v>35</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
@@ -9281,7 +9276,7 @@
         <v>35</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>35</v>
@@ -9290,7 +9285,7 @@
         <v>35</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>35</v>
@@ -9313,10 +9308,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9440,10 +9435,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9569,14 +9564,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9598,16 +9593,16 @@
         <v>69</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>72</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>35</v>
@@ -9656,7 +9651,7 @@
         <v>35</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
@@ -9677,7 +9672,7 @@
         <v>35</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>35</v>
@@ -9700,10 +9695,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9726,13 +9721,13 @@
         <v>35</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9783,7 +9778,7 @@
         <v>35</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
@@ -9795,31 +9790,31 @@
         <v>35</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AP59" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ59" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR59" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ59" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR59" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="AS59" t="s" s="2">
         <v>35</v>
@@ -9827,10 +9822,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9853,16 +9848,16 @@
         <v>35</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9888,13 +9883,13 @@
         <v>35</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>35</v>
@@ -9912,7 +9907,7 @@
         <v>35</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
@@ -9924,42 +9919,42 @@
         <v>35</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="AK60" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ60" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AR60" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AS60" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ60" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AR60" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AS60" t="s" s="2">
-        <v>488</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9982,13 +9977,13 @@
         <v>50</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -10039,7 +10034,7 @@
         <v>35</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
@@ -10051,28 +10046,28 @@
         <v>35</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP61" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ61" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ61" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="AR61" t="s" s="2">
         <v>35</v>
@@ -10083,10 +10078,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10210,10 +10205,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10339,10 +10334,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10365,16 +10360,16 @@
         <v>50</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10424,54 +10419,54 @@
         <v>35</v>
       </c>
       <c r="AF64" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="AG64" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP64" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="AJ64" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AQ64" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR64" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="AN64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP64" t="s" s="2">
+      <c r="AS64" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="AQ64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR64" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AS64" t="s" s="2">
-        <v>508</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10494,115 +10489,115 @@
         <v>50</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>35</v>
       </c>
       <c r="Q65" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="R65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP65" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="AG65" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AQ65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR65" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="AN65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP65" t="s" s="2">
+      <c r="AS65" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="AQ65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR65" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AS65" t="s" s="2">
-        <v>518</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10625,13 +10620,13 @@
         <v>35</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10658,78 +10653,78 @@
         <v>35</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y66" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="Z66" t="s" s="2">
+      <c r="AK66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="AA66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="AK66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AN66" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AO66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ66" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="AN66" t="s" s="2">
+      <c r="AR66" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AS66" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ66" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AR66" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AS66" t="s" s="2">
-        <v>529</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10752,19 +10747,19 @@
         <v>35</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>35</v>
@@ -10789,78 +10784,78 @@
         <v>35</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y67" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP67" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ67" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="Z67" t="s" s="2">
+      <c r="AR67" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AS67" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ67" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AR67" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AS67" t="s" s="2">
-        <v>538</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10883,13 +10878,13 @@
         <v>35</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>242</v>
+        <v>538</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10940,7 +10935,7 @@
         <v>35</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>36</v>
@@ -10952,20 +10947,20 @@
         <v>35</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AM68" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>249</v>
-      </c>
       <c r="AO68" t="s" s="2">
         <v>35</v>
       </c>
@@ -10973,7 +10968,7 @@
         <v>35</v>
       </c>
       <c r="AQ68" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AR68" t="s" s="2">
         <v>35</v>
@@ -10984,10 +10979,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -11111,10 +11106,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11240,10 +11235,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11269,13 +11264,13 @@
         <v>62</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -11325,43 +11320,43 @@
         <v>35</v>
       </c>
       <c r="AF71" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI71" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="AG71" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI71" t="s" s="2">
+      <c r="AJ71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP71" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ71" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR71" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP71" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ71" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR71" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="AS71" t="s" s="2">
         <v>35</v>
@@ -11369,10 +11364,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11395,16 +11390,16 @@
         <v>50</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11430,32 +11425,32 @@
         <v>35</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y72" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="Z72" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="Z72" t="s" s="2">
+      <c r="AA72" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF72" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="AA72" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>558</v>
-      </c>
       <c r="AG72" t="s" s="2">
         <v>36</v>
       </c>
@@ -11466,7 +11461,7 @@
         <v>35</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>35</v>
@@ -11475,7 +11470,7 @@
         <v>35</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>35</v>
@@ -11498,10 +11493,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11524,16 +11519,16 @@
         <v>50</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11583,43 +11578,43 @@
         <v>35</v>
       </c>
       <c r="AF73" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="AG73" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AN73" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP73" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ73" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR73" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP73" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ73" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR73" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="AS73" t="s" s="2">
         <v>35</v>
@@ -11627,10 +11622,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11656,13 +11651,13 @@
         <v>62</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11712,7 +11707,7 @@
         <v>35</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>36</v>
@@ -11724,7 +11719,7 @@
         <v>35</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>35</v>
@@ -11733,7 +11728,7 @@
         <v>35</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>35</v>
@@ -11756,10 +11751,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11782,16 +11777,16 @@
         <v>35</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11841,7 +11836,7 @@
         <v>35</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>36</v>
@@ -11853,31 +11848,31 @@
         <v>35</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="AM75" t="s" s="2">
+      <c r="AN75" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="AN75" t="s" s="2">
+      <c r="AO75" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP75" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ75" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="AO75" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP75" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ75" t="s" s="2">
+      <c r="AR75" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="AR75" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="AS75" t="s" s="2">
         <v>35</v>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T12:08:41+00:00</t>
+    <t>2023-07-21T15:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T15:47:29+00:00</t>
+    <t>2023-07-26T15:16:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T15:16:57+00:00</t>
+    <t>2023-07-26T17:28:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T17:28:55+00:00</t>
+    <t>2023-08-04T14:27:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T14:27:37+00:00</t>
+    <t>2023-08-04T14:41:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T14:41:08+00:00</t>
+    <t>2023-08-05T17:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-05T17:33:43+00:00</t>
+    <t>2023-08-06T12:10:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-06T12:10:37+00:00</t>
+    <t>2023-08-06T12:23:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-06T12:23:25+00:00</t>
+    <t>2023-08-06T12:41:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-06T12:41:23+00:00</t>
+    <t>2023-08-06T13:08:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-06T13:08:17+00:00</t>
+    <t>2023-08-21T11:27:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-21T11:27:47+00:00</t>
+    <t>2023-08-21T12:27:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="581">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-21T12:27:12+00:00</t>
+    <t>2023-08-29T16:46:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -145,6 +145,10 @@
     <t>Usually, this is used for documents other than those defined by FHIR.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}iti-mhd-repl:a DocumetReference replacements needs to relate to a superseded DocumentReference {relatesTo.empty() or (relatesTo.code='replaces' implies relatesTo.target.exists())}</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -204,6 +208,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>DocumentReference.meta.id</t>
   </si>
   <si>
@@ -273,10 +281,6 @@
   </si>
   <si>
     <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
   </si>
   <si>
     <t>version : [0..1] Numerique</t>
@@ -2324,19 +2328,19 @@
         <v>35</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>35</v>
@@ -2348,18 +2352,18 @@
         <v>35</v>
       </c>
       <c r="AR1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AS1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2370,7 +2374,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>35</v>
@@ -2379,19 +2383,19 @@
         <v>35</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2441,13 +2445,13 @@
         <v>35</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>35</v>
@@ -2485,10 +2489,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2499,7 +2503,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>35</v>
@@ -2508,16 +2512,16 @@
         <v>35</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2568,19 +2572,19 @@
         <v>35</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>35</v>
@@ -2612,10 +2616,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2626,7 +2630,7 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>35</v>
@@ -2638,13 +2642,13 @@
         <v>35</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2695,13 +2699,13 @@
         <v>35</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>35</v>
@@ -2716,7 +2720,7 @@
         <v>35</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>35</v>
@@ -2739,14 +2743,14 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -2765,16 +2769,16 @@
         <v>35</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2812,19 +2816,19 @@
         <v>35</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
@@ -2836,7 +2840,7 @@
         <v>35</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>35</v>
@@ -2845,7 +2849,7 @@
         <v>35</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>35</v>
@@ -2868,10 +2872,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2882,28 +2886,28 @@
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2953,19 +2957,19 @@
         <v>35</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>35</v>
@@ -2992,15 +2996,15 @@
         <v>35</v>
       </c>
       <c r="AS6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -3011,7 +3015,7 @@
         <v>36</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>35</v>
@@ -3020,19 +3024,19 @@
         <v>35</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3082,19 +3086,19 @@
         <v>35</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>35</v>
@@ -3126,10 +3130,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3140,7 +3144,7 @@
         <v>36</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>35</v>
@@ -3149,19 +3153,19 @@
         <v>35</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3211,19 +3215,19 @@
         <v>35</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>35</v>
@@ -3255,10 +3259,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3278,19 +3282,19 @@
         <v>35</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3340,7 +3344,7 @@
         <v>35</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -3352,7 +3356,7 @@
         <v>35</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>35</v>
@@ -3376,7 +3380,7 @@
         <v>35</v>
       </c>
       <c r="AR9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AS9" t="s" s="2">
         <v>35</v>
@@ -3384,10 +3388,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3407,19 +3411,19 @@
         <v>35</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3445,13 +3449,13 @@
         <v>35</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>35</v>
@@ -3469,7 +3473,7 @@
         <v>35</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -3481,7 +3485,7 @@
         <v>35</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>35</v>
@@ -3513,10 +3517,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3536,19 +3540,19 @@
         <v>35</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3574,13 +3578,13 @@
         <v>35</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>35</v>
@@ -3598,7 +3602,7 @@
         <v>35</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -3610,7 +3614,7 @@
         <v>35</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>35</v>
@@ -3642,10 +3646,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3656,28 +3660,28 @@
         <v>36</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3727,19 +3731,19 @@
         <v>35</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>35</v>
@@ -3771,10 +3775,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3785,7 +3789,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>35</v>
@@ -3797,16 +3801,16 @@
         <v>35</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3832,13 +3836,13 @@
         <v>35</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>35</v>
@@ -3856,19 +3860,19 @@
         <v>35</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>35</v>
@@ -3900,21 +3904,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>35</v>
@@ -3926,16 +3930,16 @@
         <v>35</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3985,19 +3989,19 @@
         <v>35</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>35</v>
@@ -4006,7 +4010,7 @@
         <v>35</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>35</v>
@@ -4029,24 +4033,24 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>35</v>
@@ -4055,16 +4059,16 @@
         <v>35</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4114,7 +4118,7 @@
         <v>35</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
@@ -4135,7 +4139,7 @@
         <v>35</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>35</v>
@@ -4158,10 +4162,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4184,13 +4188,13 @@
         <v>35</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4229,17 +4233,17 @@
         <v>35</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
@@ -4251,7 +4255,7 @@
         <v>35</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>35</v>
@@ -4283,13 +4287,13 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>35</v>
@@ -4299,10 +4303,10 @@
         <v>36</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>35</v>
@@ -4311,13 +4315,13 @@
         <v>35</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4368,7 +4372,7 @@
         <v>35</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
@@ -4377,10 +4381,10 @@
         <v>37</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>35</v>
@@ -4407,15 +4411,15 @@
         <v>35</v>
       </c>
       <c r="AS17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4432,19 +4436,19 @@
         <v>35</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4495,7 +4499,7 @@
         <v>35</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
@@ -4507,7 +4511,7 @@
         <v>35</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>35</v>
@@ -4539,10 +4543,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4550,13 +4554,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>35</v>
@@ -4565,19 +4569,19 @@
         <v>35</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>35</v>
@@ -4626,19 +4630,19 @@
         <v>35</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>35</v>
@@ -4647,7 +4651,7 @@
         <v>35</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>35</v>
@@ -4656,24 +4660,24 @@
         <v>35</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AR19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AS19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4687,22 +4691,22 @@
         <v>37</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4741,17 +4745,17 @@
         <v>35</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
@@ -4763,45 +4767,45 @@
         <v>35</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AR20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AS20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>35</v>
@@ -4823,13 +4827,13 @@
         <v>35</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4880,7 +4884,7 @@
         <v>35</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
@@ -4889,10 +4893,10 @@
         <v>37</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>35</v>
@@ -4901,7 +4905,7 @@
         <v>35</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>35</v>
@@ -4910,7 +4914,7 @@
         <v>35</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ21" t="s" s="2">
         <v>35</v>
@@ -4924,10 +4928,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4935,31 +4939,31 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4985,11 +4989,11 @@
         <v>35</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>35</v>
@@ -5007,54 +5011,54 @@
         <v>35</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AR22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AS22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5074,19 +5078,19 @@
         <v>35</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5112,13 +5116,13 @@
         <v>35</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>35</v>
@@ -5136,37 +5140,37 @@
         <v>35</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AQ23" t="s" s="2">
         <v>35</v>
@@ -5180,10 +5184,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5191,31 +5195,31 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5241,11 +5245,11 @@
         <v>35</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>35</v>
@@ -5263,86 +5267,86 @@
         <v>35</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AR24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AS24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5368,13 +5372,13 @@
         <v>35</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>35</v>
@@ -5392,7 +5396,7 @@
         <v>35</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
@@ -5404,42 +5408,42 @@
         <v>35</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AQ25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AR25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AS25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5447,28 +5451,28 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5519,86 +5523,86 @@
         <v>35</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AR26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AS26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5648,34 +5652,34 @@
         <v>35</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>35</v>
@@ -5692,10 +5696,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5703,31 +5707,31 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5777,7 +5781,7 @@
         <v>35</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
@@ -5789,42 +5793,42 @@
         <v>35</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AR28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AS28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5832,13 +5836,13 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>35</v>
@@ -5847,16 +5851,16 @@
         <v>35</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5906,54 +5910,54 @@
         <v>35</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AQ29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AR29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AS29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5964,7 +5968,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>35</v>
@@ -5976,16 +5980,16 @@
         <v>35</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -6035,28 +6039,28 @@
         <v>35</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>35</v>
@@ -6071,7 +6075,7 @@
         <v>35</v>
       </c>
       <c r="AR30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AS30" t="s" s="2">
         <v>35</v>
@@ -6079,10 +6083,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6096,25 +6100,25 @@
         <v>37</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6164,7 +6168,7 @@
         <v>35</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
@@ -6176,16 +6180,16 @@
         <v>35</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>35</v>
@@ -6197,10 +6201,10 @@
         <v>35</v>
       </c>
       <c r="AQ31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AR31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AS31" t="s" s="2">
         <v>35</v>
@@ -6208,10 +6212,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6222,7 +6226,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>35</v>
@@ -6234,13 +6238,13 @@
         <v>35</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6291,13 +6295,13 @@
         <v>35</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>35</v>
@@ -6312,7 +6316,7 @@
         <v>35</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>35</v>
@@ -6335,14 +6339,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6361,16 +6365,16 @@
         <v>35</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6420,7 +6424,7 @@
         <v>35</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
@@ -6432,7 +6436,7 @@
         <v>35</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>35</v>
@@ -6441,7 +6445,7 @@
         <v>35</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>35</v>
@@ -6464,14 +6468,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6484,25 +6488,25 @@
         <v>35</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>35</v>
@@ -6551,7 +6555,7 @@
         <v>35</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
@@ -6563,7 +6567,7 @@
         <v>35</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>35</v>
@@ -6572,7 +6576,7 @@
         <v>35</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>35</v>
@@ -6595,10 +6599,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6606,10 +6610,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>35</v>
@@ -6618,19 +6622,19 @@
         <v>35</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6656,13 +6660,13 @@
         <v>35</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>35</v>
@@ -6680,28 +6684,28 @@
         <v>35</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>35</v>
@@ -6713,21 +6717,21 @@
         <v>35</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AR35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AS35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6735,10 +6739,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>35</v>
@@ -6747,16 +6751,16 @@
         <v>35</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6807,28 +6811,28 @@
         <v>35</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>35</v>
@@ -6840,21 +6844,21 @@
         <v>35</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AR36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AS36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6865,31 +6869,31 @@
         <v>36</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>35</v>
@@ -6938,19 +6942,19 @@
         <v>35</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>35</v>
@@ -6959,7 +6963,7 @@
         <v>35</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>35</v>
@@ -6968,24 +6972,24 @@
         <v>35</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AR37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AS37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6993,34 +6997,34 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>35</v>
@@ -7045,13 +7049,13 @@
         <v>35</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>35</v>
@@ -7069,7 +7073,7 @@
         <v>35</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
@@ -7081,42 +7085,42 @@
         <v>35</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AR38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AS38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7124,28 +7128,28 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7196,10 +7200,10 @@
         <v>35</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>37</v>
@@ -7208,16 +7212,16 @@
         <v>35</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>35</v>
@@ -7240,10 +7244,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7254,7 +7258,7 @@
         <v>36</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>35</v>
@@ -7266,13 +7270,13 @@
         <v>35</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7323,13 +7327,13 @@
         <v>35</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>35</v>
@@ -7344,7 +7348,7 @@
         <v>35</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>35</v>
@@ -7367,14 +7371,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7393,16 +7397,16 @@
         <v>35</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7452,7 +7456,7 @@
         <v>35</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
@@ -7464,7 +7468,7 @@
         <v>35</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>35</v>
@@ -7473,7 +7477,7 @@
         <v>35</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>35</v>
@@ -7496,14 +7500,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7516,25 +7520,25 @@
         <v>35</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>35</v>
@@ -7583,7 +7587,7 @@
         <v>35</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
@@ -7595,7 +7599,7 @@
         <v>35</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>35</v>
@@ -7604,7 +7608,7 @@
         <v>35</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>35</v>
@@ -7627,10 +7631,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7638,10 +7642,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>35</v>
@@ -7650,16 +7654,16 @@
         <v>35</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7710,40 +7714,40 @@
         <v>35</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AQ43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AR43" t="s" s="2">
         <v>35</v>
@@ -7754,10 +7758,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7768,7 +7772,7 @@
         <v>36</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>35</v>
@@ -7780,13 +7784,13 @@
         <v>35</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7837,13 +7841,13 @@
         <v>35</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>35</v>
@@ -7858,7 +7862,7 @@
         <v>35</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>35</v>
@@ -7881,14 +7885,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7907,16 +7911,16 @@
         <v>35</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7954,19 +7958,19 @@
         <v>35</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
@@ -7978,7 +7982,7 @@
         <v>35</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>35</v>
@@ -7987,7 +7991,7 @@
         <v>35</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>35</v>
@@ -8010,10 +8014,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8021,10 +8025,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>35</v>
@@ -8033,20 +8037,20 @@
         <v>35</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>35</v>
@@ -8059,7 +8063,7 @@
         <v>35</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>35</v>
@@ -8071,13 +8075,13 @@
         <v>35</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>35</v>
@@ -8095,19 +8099,19 @@
         <v>35</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>35</v>
@@ -8116,7 +8120,7 @@
         <v>35</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>35</v>
@@ -8125,13 +8129,13 @@
         <v>35</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AQ46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AR46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AS46" t="s" s="2">
         <v>35</v>
@@ -8139,10 +8143,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8150,32 +8154,32 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>35</v>
@@ -8188,7 +8192,7 @@
         <v>35</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>35</v>
@@ -8200,13 +8204,13 @@
         <v>35</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>35</v>
@@ -8224,19 +8228,19 @@
         <v>35</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>35</v>
@@ -8245,7 +8249,7 @@
         <v>35</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>35</v>
@@ -8260,18 +8264,18 @@
         <v>35</v>
       </c>
       <c r="AR47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AS47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8294,19 +8298,19 @@
         <v>35</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>35</v>
@@ -8355,19 +8359,19 @@
         <v>35</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>35</v>
@@ -8376,7 +8380,7 @@
         <v>35</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>35</v>
@@ -8385,7 +8389,7 @@
         <v>35</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>35</v>
@@ -8399,10 +8403,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8410,10 +8414,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>35</v>
@@ -8422,22 +8426,22 @@
         <v>35</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>35</v>
@@ -8450,7 +8454,7 @@
         <v>35</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>35</v>
@@ -8486,19 +8490,19 @@
         <v>35</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>35</v>
@@ -8507,7 +8511,7 @@
         <v>35</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>35</v>
@@ -8516,24 +8520,24 @@
         <v>35</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AQ49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AR49" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AS49" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8541,10 +8545,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>35</v>
@@ -8553,22 +8557,22 @@
         <v>35</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>35</v>
@@ -8617,19 +8621,19 @@
         <v>35</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>35</v>
@@ -8638,7 +8642,7 @@
         <v>35</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>35</v>
@@ -8653,7 +8657,7 @@
         <v>35</v>
       </c>
       <c r="AR50" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AS50" t="s" s="2">
         <v>35</v>
@@ -8661,10 +8665,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8672,10 +8676,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>35</v>
@@ -8684,22 +8688,22 @@
         <v>35</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>35</v>
@@ -8748,19 +8752,19 @@
         <v>35</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>35</v>
@@ -8769,7 +8773,7 @@
         <v>35</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>35</v>
@@ -8784,7 +8788,7 @@
         <v>35</v>
       </c>
       <c r="AR51" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AS51" t="s" s="2">
         <v>35</v>
@@ -8792,10 +8796,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8803,10 +8807,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>35</v>
@@ -8815,20 +8819,20 @@
         <v>35</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>35</v>
@@ -8841,7 +8845,7 @@
         <v>35</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>35</v>
@@ -8877,19 +8881,19 @@
         <v>35</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>35</v>
@@ -8898,7 +8902,7 @@
         <v>35</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>35</v>
@@ -8913,18 +8917,18 @@
         <v>35</v>
       </c>
       <c r="AR52" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AS52" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8932,32 +8936,32 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>35</v>
@@ -9006,19 +9010,19 @@
         <v>35</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>35</v>
@@ -9027,7 +9031,7 @@
         <v>35</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>35</v>
@@ -9042,18 +9046,18 @@
         <v>35</v>
       </c>
       <c r="AR53" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AS53" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9061,31 +9065,31 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -9111,13 +9115,13 @@
         <v>35</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>35</v>
@@ -9135,31 +9139,31 @@
         <v>35</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>35</v>
@@ -9168,21 +9172,21 @@
         <v>35</v>
       </c>
       <c r="AQ54" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AR54" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AS54" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9190,31 +9194,31 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9264,19 +9268,19 @@
         <v>35</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>35</v>
@@ -9285,7 +9289,7 @@
         <v>35</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>35</v>
@@ -9308,10 +9312,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9322,7 +9326,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>35</v>
@@ -9334,13 +9338,13 @@
         <v>35</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9391,13 +9395,13 @@
         <v>35</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>35</v>
@@ -9412,7 +9416,7 @@
         <v>35</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>35</v>
@@ -9435,14 +9439,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9461,16 +9465,16 @@
         <v>35</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9520,7 +9524,7 @@
         <v>35</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
@@ -9532,7 +9536,7 @@
         <v>35</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>35</v>
@@ -9541,7 +9545,7 @@
         <v>35</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>35</v>
@@ -9564,14 +9568,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9584,25 +9588,25 @@
         <v>35</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>35</v>
@@ -9651,7 +9655,7 @@
         <v>35</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
@@ -9663,7 +9667,7 @@
         <v>35</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>35</v>
@@ -9672,7 +9676,7 @@
         <v>35</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>35</v>
@@ -9695,10 +9699,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9721,13 +9725,13 @@
         <v>35</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9778,7 +9782,7 @@
         <v>35</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
@@ -9790,22 +9794,22 @@
         <v>35</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>35</v>
@@ -9814,7 +9818,7 @@
         <v>35</v>
       </c>
       <c r="AR59" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AS59" t="s" s="2">
         <v>35</v>
@@ -9822,10 +9826,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9836,7 +9840,7 @@
         <v>36</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>35</v>
@@ -9848,16 +9852,16 @@
         <v>35</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9883,13 +9887,13 @@
         <v>35</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>35</v>
@@ -9907,7 +9911,7 @@
         <v>35</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
@@ -9919,16 +9923,16 @@
         <v>35</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>35</v>
@@ -9940,21 +9944,21 @@
         <v>35</v>
       </c>
       <c r="AQ60" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AR60" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AS60" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9962,28 +9966,28 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -10034,31 +10038,31 @@
         <v>35</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>35</v>
@@ -10067,7 +10071,7 @@
         <v>35</v>
       </c>
       <c r="AQ61" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AR61" t="s" s="2">
         <v>35</v>
@@ -10078,10 +10082,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10092,7 +10096,7 @@
         <v>36</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>35</v>
@@ -10104,13 +10108,13 @@
         <v>35</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -10161,13 +10165,13 @@
         <v>35</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>35</v>
@@ -10182,7 +10186,7 @@
         <v>35</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>35</v>
@@ -10205,14 +10209,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -10231,16 +10235,16 @@
         <v>35</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -10278,19 +10282,19 @@
         <v>35</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
@@ -10302,7 +10306,7 @@
         <v>35</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>35</v>
@@ -10311,7 +10315,7 @@
         <v>35</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>35</v>
@@ -10334,10 +10338,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10345,10 +10349,10 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>35</v>
@@ -10357,19 +10361,19 @@
         <v>35</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10419,19 +10423,19 @@
         <v>35</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>35</v>
@@ -10440,7 +10444,7 @@
         <v>35</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>35</v>
@@ -10449,24 +10453,24 @@
         <v>35</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AQ64" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AR64" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AS64" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10477,7 +10481,7 @@
         <v>36</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>35</v>
@@ -10486,26 +10490,26 @@
         <v>35</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>35</v>
       </c>
       <c r="Q65" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>35</v>
@@ -10550,19 +10554,19 @@
         <v>35</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>35</v>
@@ -10571,7 +10575,7 @@
         <v>35</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>35</v>
@@ -10580,24 +10584,24 @@
         <v>35</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AQ65" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AR65" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AS65" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10605,13 +10609,13 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>35</v>
@@ -10620,13 +10624,13 @@
         <v>35</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10653,13 +10657,13 @@
         <v>35</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>35</v>
@@ -10677,31 +10681,31 @@
         <v>35</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>35</v>
@@ -10710,21 +10714,21 @@
         <v>35</v>
       </c>
       <c r="AQ66" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AR66" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AS66" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10732,13 +10736,13 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>35</v>
@@ -10747,19 +10751,19 @@
         <v>35</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>35</v>
@@ -10784,13 +10788,13 @@
         <v>35</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>35</v>
@@ -10808,32 +10812,32 @@
         <v>35</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="AN67" t="s" s="2">
-        <v>523</v>
-      </c>
       <c r="AO67" t="s" s="2">
         <v>35</v>
       </c>
@@ -10841,21 +10845,21 @@
         <v>35</v>
       </c>
       <c r="AQ67" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AR67" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AS67" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10863,13 +10867,13 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>35</v>
@@ -10878,13 +10882,13 @@
         <v>35</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10935,31 +10939,31 @@
         <v>35</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>35</v>
@@ -10968,7 +10972,7 @@
         <v>35</v>
       </c>
       <c r="AQ68" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AR68" t="s" s="2">
         <v>35</v>
@@ -10979,10 +10983,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10993,7 +10997,7 @@
         <v>36</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>35</v>
@@ -11005,13 +11009,13 @@
         <v>35</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -11062,13 +11066,13 @@
         <v>35</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>35</v>
@@ -11083,7 +11087,7 @@
         <v>35</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>35</v>
@@ -11106,14 +11110,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -11132,16 +11136,16 @@
         <v>35</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -11179,19 +11183,19 @@
         <v>35</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>36</v>
@@ -11203,7 +11207,7 @@
         <v>35</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>35</v>
@@ -11212,7 +11216,7 @@
         <v>35</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>35</v>
@@ -11235,10 +11239,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11249,7 +11253,7 @@
         <v>36</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>35</v>
@@ -11258,19 +11262,19 @@
         <v>35</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -11320,19 +11324,19 @@
         <v>35</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>35</v>
@@ -11341,7 +11345,7 @@
         <v>35</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>35</v>
@@ -11356,7 +11360,7 @@
         <v>35</v>
       </c>
       <c r="AR71" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AS71" t="s" s="2">
         <v>35</v>
@@ -11364,10 +11368,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11378,7 +11382,7 @@
         <v>36</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>35</v>
@@ -11387,19 +11391,19 @@
         <v>35</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11425,13 +11429,13 @@
         <v>35</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>35</v>
@@ -11449,19 +11453,19 @@
         <v>35</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>35</v>
@@ -11470,7 +11474,7 @@
         <v>35</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>35</v>
@@ -11493,10 +11497,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11507,7 +11511,7 @@
         <v>36</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>35</v>
@@ -11516,19 +11520,19 @@
         <v>35</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11578,19 +11582,19 @@
         <v>35</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>35</v>
@@ -11599,7 +11603,7 @@
         <v>35</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>35</v>
@@ -11614,7 +11618,7 @@
         <v>35</v>
       </c>
       <c r="AR73" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AS73" t="s" s="2">
         <v>35</v>
@@ -11622,10 +11626,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11636,7 +11640,7 @@
         <v>36</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>35</v>
@@ -11645,19 +11649,19 @@
         <v>35</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11707,19 +11711,19 @@
         <v>35</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>35</v>
@@ -11728,7 +11732,7 @@
         <v>35</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>35</v>
@@ -11751,10 +11755,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11777,16 +11781,16 @@
         <v>35</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11836,7 +11840,7 @@
         <v>35</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>36</v>
@@ -11848,19 +11852,19 @@
         <v>35</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>35</v>
@@ -11869,10 +11873,10 @@
         <v>35</v>
       </c>
       <c r="AQ75" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AR75" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AS75" t="s" s="2">
         <v>35</v>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-29T16:46:01+00:00</t>
+    <t>2023-08-31T15:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="577">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:17:32+00:00</t>
+    <t>2023-08-31T15:22:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -747,9 +747,6 @@
     <t>Key metadata element describing the the category or classification of the document. This is a broader perspective that groups similar documents based on how they would be used. This is a primary key used in searching.</t>
   </si>
   <si>
-    <t>XDS classCode CI-SIS</t>
-  </si>
-  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J06-XdsClassCode-CISIS/FHIR/JDV-J06-XdsClassCode-CISIS</t>
   </si>
   <si>
@@ -1450,9 +1447,6 @@
   </si>
   <si>
     <t>Note that while IHE mostly issues URNs for format types, not all documents can be identified by a URI.</t>
-  </si>
-  <si>
-    <t>XDS formatCode documents CI-SIS</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J10-XdsFormatCode-CISIS/FHIR/JDV-J10-XdsFormatCode-CISIS</t>
@@ -1674,9 +1668,6 @@
     <t>The kind of facility where the patient was seen.</t>
   </si>
   <si>
-    <t>XDS healthcareFacilityTypeCode CI-SIS</t>
-  </si>
-  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J02-XdsHealthcareFacilityTypeCode-CISIS/FHIR/JDV-J02-XdsHealthcareFacilityTypeCode-CISIS</t>
   </si>
   <si>
@@ -1716,9 +1707,6 @@
   </si>
   <si>
     <t>This is an important piece of metadata that providers often rely upon to quickly sort and/or filter out to find specific content.</t>
-  </si>
-  <si>
-    <t>XDS practiceSettingCode CI-SIS</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J04-XdsPracticeSettingCode-CISIS/FHIR/JDV-J04-XdsPracticeSettingCode-CISIS</t>
@@ -5374,11 +5362,9 @@
       <c r="X25" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Y25" s="2"/>
+      <c r="Z25" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>35</v>
@@ -5408,19 +5394,19 @@
         <v>35</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AK25" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>221</v>
@@ -5429,21 +5415,21 @@
         <v>35</v>
       </c>
       <c r="AQ25" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AR25" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AR25" t="s" s="2">
+      <c r="AS25" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AS25" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5466,13 +5452,13 @@
         <v>51</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5523,7 +5509,7 @@
         <v>35</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
@@ -5535,46 +5521,46 @@
         <v>35</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AN26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AO26" t="s" s="2">
+      <c r="AP26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AP26" t="s" s="2">
+      <c r="AQ26" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AQ26" t="s" s="2">
+      <c r="AR26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AS26" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AR26" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AS26" t="s" s="2">
-        <v>252</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5596,13 +5582,13 @@
         <v>87</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5652,7 +5638,7 @@
         <v>35</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
@@ -5667,19 +5653,19 @@
         <v>62</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>35</v>
@@ -5696,10 +5682,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5722,16 +5708,16 @@
         <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5781,7 +5767,7 @@
         <v>35</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
@@ -5793,42 +5779,42 @@
         <v>35</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP28" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AO28" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP28" t="s" s="2">
+      <c r="AQ28" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AQ28" t="s" s="2">
+      <c r="AR28" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AS28" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AR28" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AS28" t="s" s="2">
-        <v>274</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5851,16 +5837,16 @@
         <v>35</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5910,7 +5896,7 @@
         <v>35</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
@@ -5922,42 +5908,42 @@
         <v>35</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AK29" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AO29" t="s" s="2">
+      <c r="AP29" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AP29" t="s" s="2">
+      <c r="AQ29" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AQ29" t="s" s="2">
+      <c r="AR29" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AS29" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AR29" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AS29" t="s" s="2">
-        <v>287</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5980,16 +5966,16 @@
         <v>35</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -6039,7 +6025,7 @@
         <v>35</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
@@ -6054,28 +6040,28 @@
         <v>62</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO30" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP30" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ30" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR30" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR30" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AS30" t="s" s="2">
         <v>35</v>
@@ -6083,10 +6069,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6109,16 +6095,16 @@
         <v>51</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6168,7 +6154,7 @@
         <v>35</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
@@ -6180,31 +6166,31 @@
         <v>35</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AK31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ31" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AN31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ31" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="AR31" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AS31" t="s" s="2">
         <v>35</v>
@@ -6212,10 +6198,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6339,10 +6325,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6468,14 +6454,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6497,16 +6483,16 @@
         <v>71</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>35</v>
@@ -6555,7 +6541,7 @@
         <v>35</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
@@ -6599,10 +6585,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6628,13 +6614,13 @@
         <v>128</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6663,11 +6649,11 @@
         <v>194</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Z35" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>318</v>
-      </c>
       <c r="AA35" t="s" s="2">
         <v>35</v>
       </c>
@@ -6684,7 +6670,7 @@
         <v>35</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>50</v>
@@ -6702,36 +6688,36 @@
         <v>35</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ35" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AN35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ35" t="s" s="2">
+      <c r="AR35" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AR35" t="s" s="2">
+      <c r="AS35" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AS35" t="s" s="2">
-        <v>323</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6754,13 +6740,13 @@
         <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6811,7 +6797,7 @@
         <v>35</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>50</v>
@@ -6823,42 +6809,42 @@
         <v>35</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AK36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ36" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AN36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ36" t="s" s="2">
+      <c r="AR36" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AR36" t="s" s="2">
+      <c r="AS36" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AS36" t="s" s="2">
-        <v>333</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6884,16 +6870,16 @@
         <v>64</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>35</v>
@@ -6942,7 +6928,7 @@
         <v>35</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
@@ -6963,33 +6949,33 @@
         <v>35</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO37" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP37" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AN37" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP37" t="s" s="2">
+      <c r="AQ37" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AQ37" t="s" s="2">
+      <c r="AR37" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AS37" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AR37" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AS37" t="s" s="2">
-        <v>342</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7015,16 +7001,16 @@
         <v>211</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>35</v>
@@ -7073,7 +7059,7 @@
         <v>35</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
@@ -7085,42 +7071,42 @@
         <v>35</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AK38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP38" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AO38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP38" t="s" s="2">
+      <c r="AQ38" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AQ38" t="s" s="2">
+      <c r="AR38" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AS38" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AR38" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AS38" t="s" s="2">
-        <v>354</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7143,13 +7129,13 @@
         <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7200,7 +7186,7 @@
         <v>35</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>50</v>
@@ -7218,10 +7204,10 @@
         <v>35</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>35</v>
@@ -7244,10 +7230,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7371,10 +7357,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7500,14 +7486,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7529,16 +7515,16 @@
         <v>71</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>35</v>
@@ -7587,7 +7573,7 @@
         <v>35</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
@@ -7631,10 +7617,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7657,13 +7643,13 @@
         <v>51</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7714,7 +7700,7 @@
         <v>35</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>50</v>
@@ -7732,22 +7718,22 @@
         <v>35</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AM43" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AO43" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP43" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AO43" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP43" t="s" s="2">
+      <c r="AQ43" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AQ43" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AR43" t="s" s="2">
         <v>35</v>
@@ -7758,10 +7744,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7885,10 +7871,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -8014,10 +8000,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8043,14 +8029,14 @@
         <v>128</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>35</v>
@@ -8063,7 +8049,7 @@
         <v>35</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>35</v>
@@ -8078,28 +8064,28 @@
         <v>194</v>
       </c>
       <c r="Y46" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="Z46" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="Z46" t="s" s="2">
+      <c r="AA46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF46" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
@@ -8120,22 +8106,22 @@
         <v>35</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP46" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AN46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP46" t="s" s="2">
+      <c r="AQ46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR46" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AQ46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR46" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="AS46" t="s" s="2">
         <v>35</v>
@@ -8143,10 +8129,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8172,14 +8158,14 @@
         <v>128</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>35</v>
@@ -8192,7 +8178,7 @@
         <v>35</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>35</v>
@@ -8228,7 +8214,7 @@
         <v>35</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
@@ -8249,33 +8235,33 @@
         <v>35</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR47" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AN47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR47" t="s" s="2">
+      <c r="AS47" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AS47" t="s" s="2">
-        <v>392</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8298,19 +8284,19 @@
         <v>35</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>35</v>
@@ -8359,7 +8345,7 @@
         <v>35</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
@@ -8380,16 +8366,16 @@
         <v>35</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP48" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP48" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>35</v>
@@ -8403,10 +8389,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8429,19 +8415,19 @@
         <v>51</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>35</v>
@@ -8454,90 +8440,90 @@
         <v>35</v>
       </c>
       <c r="T49" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF49" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="U49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF49" t="s" s="2">
+      <c r="AG49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AG49" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
+      <c r="AK49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AK49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP49" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AN49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP49" t="s" s="2">
+      <c r="AQ49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR49" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AQ49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR49" t="s" s="2">
+      <c r="AS49" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AS49" t="s" s="2">
-        <v>414</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8560,19 +8546,19 @@
         <v>51</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>35</v>
@@ -8621,7 +8607,7 @@
         <v>35</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
@@ -8642,22 +8628,22 @@
         <v>35</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP50" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ50" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR50" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ50" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR50" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="AS50" t="s" s="2">
         <v>35</v>
@@ -8665,10 +8651,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8691,19 +8677,19 @@
         <v>51</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>35</v>
@@ -8752,7 +8738,7 @@
         <v>35</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
@@ -8773,22 +8759,22 @@
         <v>35</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP51" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ51" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR51" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR51" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AS51" t="s" s="2">
         <v>35</v>
@@ -8796,10 +8782,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8825,14 +8811,14 @@
         <v>64</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>35</v>
@@ -8845,43 +8831,43 @@
         <v>35</v>
       </c>
       <c r="T52" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF52" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
@@ -8902,33 +8888,33 @@
         <v>35</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR52" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="AN52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR52" t="s" s="2">
+      <c r="AS52" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="AS52" t="s" s="2">
-        <v>440</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8951,17 +8937,17 @@
         <v>51</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>35</v>
@@ -9010,7 +8996,7 @@
         <v>35</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
@@ -9031,7 +9017,7 @@
         <v>35</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>35</v>
@@ -9046,18 +9032,18 @@
         <v>35</v>
       </c>
       <c r="AR53" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AS53" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AS53" t="s" s="2">
-        <v>448</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9083,13 +9069,13 @@
         <v>106</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -9117,76 +9103,74 @@
       <c r="X54" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="Y54" t="s" s="2">
+      <c r="Y54" s="2"/>
+      <c r="Z54" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="Z54" t="s" s="2">
+      <c r="AK54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AA54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AK54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ54" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="AM54" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AR54" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AS54" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ54" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AR54" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AS54" t="s" s="2">
-        <v>459</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9209,16 +9193,16 @@
         <v>51</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9268,7 +9252,7 @@
         <v>35</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
@@ -9289,7 +9273,7 @@
         <v>35</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>35</v>
@@ -9312,10 +9296,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9439,10 +9423,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9568,14 +9552,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9597,16 +9581,16 @@
         <v>71</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>35</v>
@@ -9655,7 +9639,7 @@
         <v>35</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
@@ -9699,10 +9683,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9725,13 +9709,13 @@
         <v>35</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9782,7 +9766,7 @@
         <v>35</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
@@ -9797,28 +9781,28 @@
         <v>62</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AP59" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ59" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR59" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ59" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR59" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="AS59" t="s" s="2">
         <v>35</v>
@@ -9826,10 +9810,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9855,13 +9839,13 @@
         <v>211</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9890,10 +9874,10 @@
         <v>118</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>35</v>
@@ -9911,7 +9895,7 @@
         <v>35</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
@@ -9923,42 +9907,42 @@
         <v>35</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="AK60" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ60" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AR60" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AS60" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ60" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AR60" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AS60" t="s" s="2">
-        <v>487</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9981,13 +9965,13 @@
         <v>51</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -10038,7 +10022,7 @@
         <v>35</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
@@ -10056,22 +10040,22 @@
         <v>35</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP61" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ61" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ61" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="AR61" t="s" s="2">
         <v>35</v>
@@ -10082,10 +10066,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10209,10 +10193,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10338,10 +10322,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10364,16 +10348,16 @@
         <v>51</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10423,7 +10407,7 @@
         <v>35</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>36</v>
@@ -10432,7 +10416,7 @@
         <v>50</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>62</v>
@@ -10444,33 +10428,33 @@
         <v>35</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AQ64" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR64" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="AN64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP64" t="s" s="2">
+      <c r="AS64" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="AQ64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR64" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AS64" t="s" s="2">
-        <v>507</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10493,23 +10477,23 @@
         <v>51</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>35</v>
       </c>
       <c r="Q65" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>35</v>
@@ -10554,7 +10538,7 @@
         <v>35</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>36</v>
@@ -10563,7 +10547,7 @@
         <v>50</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>62</v>
@@ -10575,33 +10559,33 @@
         <v>35</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AQ65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR65" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="AN65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP65" t="s" s="2">
+      <c r="AS65" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AQ65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR65" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AS65" t="s" s="2">
-        <v>517</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10627,10 +10611,10 @@
         <v>211</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10659,76 +10643,74 @@
       <c r="X66" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="Y66" t="s" s="2">
+      <c r="Y66" s="2"/>
+      <c r="Z66" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="Z66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="AA66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
+      <c r="AN66" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="AK66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AO66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ66" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AR66" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AS66" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ66" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AR66" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AS66" t="s" s="2">
-        <v>528</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10754,16 +10736,16 @@
         <v>211</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="O67" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>35</v>
@@ -10790,11 +10772,9 @@
       <c r="X67" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="Y67" t="s" s="2">
-        <v>534</v>
-      </c>
+      <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>35</v>
@@ -10812,7 +10792,7 @@
         <v>35</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>36</v>
@@ -10824,19 +10804,19 @@
         <v>35</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>35</v>
@@ -10845,21 +10825,21 @@
         <v>35</v>
       </c>
       <c r="AQ67" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="AR67" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="AS67" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10882,13 +10862,13 @@
         <v>35</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10939,7 +10919,7 @@
         <v>35</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>36</v>
@@ -10957,14 +10937,14 @@
         <v>35</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AM68" t="s" s="2">
+      <c r="AN68" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AN68" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AO68" t="s" s="2">
         <v>35</v>
       </c>
@@ -10972,7 +10952,7 @@
         <v>35</v>
       </c>
       <c r="AQ68" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="AR68" t="s" s="2">
         <v>35</v>
@@ -10983,10 +10963,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -11110,10 +11090,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11239,10 +11219,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11268,13 +11248,13 @@
         <v>64</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -11324,7 +11304,7 @@
         <v>35</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>36</v>
@@ -11333,7 +11313,7 @@
         <v>50</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>62</v>
@@ -11360,7 +11340,7 @@
         <v>35</v>
       </c>
       <c r="AR71" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="AS71" t="s" s="2">
         <v>35</v>
@@ -11368,10 +11348,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11397,13 +11377,13 @@
         <v>93</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11432,10 +11412,10 @@
         <v>110</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>35</v>
@@ -11453,7 +11433,7 @@
         <v>35</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>36</v>
@@ -11497,10 +11477,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11526,13 +11506,13 @@
         <v>176</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11582,7 +11562,7 @@
         <v>35</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>36</v>
@@ -11603,7 +11583,7 @@
         <v>35</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>35</v>
@@ -11618,7 +11598,7 @@
         <v>35</v>
       </c>
       <c r="AR73" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="AS73" t="s" s="2">
         <v>35</v>
@@ -11626,10 +11606,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11655,13 +11635,13 @@
         <v>64</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11711,7 +11691,7 @@
         <v>35</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>36</v>
@@ -11755,10 +11735,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11781,16 +11761,16 @@
         <v>35</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11840,7 +11820,7 @@
         <v>35</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>36</v>
@@ -11858,25 +11838,25 @@
         <v>35</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP75" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ75" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AR75" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP75" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ75" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="AR75" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="AS75" t="s" s="2">
         <v>35</v>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="574">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:22:04+00:00</t>
+    <t>2023-08-31T15:37:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -479,7 +479,7 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
+    <t>Ressource contenue. Dans le cadre de ce profil, il est obligatoire qu'il y ait au moins une ressource contenue : la•les ressource•s référencée•s dans les attributs author et authenticator</t>
   </si>
   <si>
     <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
@@ -516,7 +516,7 @@
 </t>
   </si>
   <si>
-    <t>Extension définie par ce volet pour distinguer les fiches archivées des actives.</t>
+    <t>Extension définie pour distinguer les fiches archivées des actives.</t>
   </si>
   <si>
     <t>Extension définie par le volet ANS "Volet Partage de documents de santé en mobilité" sur les ressources List et DocumentReference pour distinguer les lots de soumission et les fiches archivés des actives.</t>
@@ -783,16 +783,10 @@
 </t>
   </si>
   <si>
-    <t>Référence vers le patient concerné par le document.</t>
+    <t>Référence vers le patient concerné par le document. Cette même ressource est référencée depuis context.sourcePatientInfo.</t>
   </si>
   <si>
     <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-subj-ref:La ressource référencée doit être présente sous l’élément DocumentReference.contained.
-Référence contrainte au profil FrPatient
-Cette même ressource est référencée depuis context.sourcePatientInfo. {f:subject}</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -850,7 +844,7 @@
     <t>DocumentReference.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-organizationalRole-rass|Device|http://interopsante.org/fhir/StructureDefinition/FrPatient) &lt;&lt;contained&gt;&gt;
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|Device|http://interopsante.org/fhir/StructureDefinition/FrPatient) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -863,14 +857,6 @@
     <t>Not necessarily who did the actual data entry (i.e. typist) or who was the source (informant).</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-bind-author:Cardinalité contrainte à [1..*]
-Reference contrainte à :
-- PractitionerRole : Dans le cas d’un auteur professionnel, c’est le profil PractitionerRoleOrganizationalRoleRASSreprésentant la situation d’exercice qui doit être référencé. Lui-même fera le lien avec le profil PractitionerRoleProfessionalRoleRASS représentant l’exercice professionnel et avec FrPractitioner.
-- Device,
-- Patient contrainte au profil FrPatient. {f:author}</t>
-  </si>
-  <si>
     <t>Event.performer.actor</t>
   </si>
   <si>
@@ -895,7 +881,7 @@
     <t>DocumentReference.authenticator</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-organizationalRole-rass|https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/organization-rass) &lt;&lt;contained&gt;&gt;
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -906,13 +892,6 @@
   </si>
   <si>
     <t>Represents a participant within the author institution who has legally authenticated or attested the document. Legal authentication implies that a document has been signed manually or electronically by the legal Authenticator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-bind-authenticator:Cardinalité contrainte à [1..1]
-Référence contrainte au profil 
-- PractitionerRole : Dans le cas d’un authentificateur professionnel, c’est le profil PractitionerRoleOrganizationalRoleRASS représentant la situation d’exercice qui doit être référencé. Lui-même fera le lien avec le profil PractitionerRoleProfessionalRoleRASS représentant l’exercice professionnel et avec FrPractitioner.
--  Organization contrainte au profil FrOrganization. {f:authenticator}</t>
   </si>
   <si>
     <t>Composition.attester</t>
@@ -2181,7 +2160,7 @@
     <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="207.71875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="180.21875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -5521,46 +5500,46 @@
         <v>35</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AN26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AO26" t="s" s="2">
+      <c r="AP26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AP26" t="s" s="2">
+      <c r="AQ26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AQ26" t="s" s="2">
+      <c r="AR26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AS26" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AR26" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AS26" t="s" s="2">
-        <v>251</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5582,13 +5561,13 @@
         <v>87</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5638,7 +5617,7 @@
         <v>35</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
@@ -5653,19 +5632,19 @@
         <v>62</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>35</v>
@@ -5682,10 +5661,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5708,16 +5687,16 @@
         <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5767,7 +5746,7 @@
         <v>35</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
@@ -5779,42 +5758,42 @@
         <v>35</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP28" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AQ28" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AO28" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP28" t="s" s="2">
+      <c r="AR28" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AS28" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AQ28" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AR28" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AS28" t="s" s="2">
-        <v>273</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5837,16 +5816,16 @@
         <v>35</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5896,7 +5875,7 @@
         <v>35</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
@@ -5908,42 +5887,42 @@
         <v>35</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AK29" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AP29" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AQ29" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AO29" t="s" s="2">
+      <c r="AR29" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AS29" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AQ29" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AR29" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AS29" t="s" s="2">
-        <v>286</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5966,16 +5945,16 @@
         <v>35</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -6025,7 +6004,7 @@
         <v>35</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
@@ -6040,13 +6019,13 @@
         <v>62</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>35</v>
@@ -6061,7 +6040,7 @@
         <v>35</v>
       </c>
       <c r="AR30" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AS30" t="s" s="2">
         <v>35</v>
@@ -6069,10 +6048,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6095,16 +6074,16 @@
         <v>51</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6154,7 +6133,7 @@
         <v>35</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
@@ -6166,31 +6145,31 @@
         <v>35</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ31" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AK31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ31" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="AR31" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AS31" t="s" s="2">
         <v>35</v>
@@ -6198,10 +6177,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6325,10 +6304,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6454,14 +6433,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6483,16 +6462,16 @@
         <v>71</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>35</v>
@@ -6541,7 +6520,7 @@
         <v>35</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
@@ -6585,10 +6564,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6614,13 +6593,13 @@
         <v>128</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6649,10 +6628,10 @@
         <v>194</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>35</v>
@@ -6670,7 +6649,7 @@
         <v>35</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>50</v>
@@ -6688,36 +6667,36 @@
         <v>35</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ35" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AR35" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AS35" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ35" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AR35" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AS35" t="s" s="2">
-        <v>322</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6740,13 +6719,13 @@
         <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6797,7 +6776,7 @@
         <v>35</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>50</v>
@@ -6809,42 +6788,42 @@
         <v>35</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ36" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AK36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AR36" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AS36" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ36" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AR36" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AS36" t="s" s="2">
-        <v>332</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6870,16 +6849,16 @@
         <v>64</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="O37" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>35</v>
@@ -6928,7 +6907,7 @@
         <v>35</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
@@ -6949,33 +6928,33 @@
         <v>35</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO37" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP37" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AQ37" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AR37" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AS37" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AQ37" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AR37" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AS37" t="s" s="2">
-        <v>341</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7001,16 +6980,16 @@
         <v>211</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>35</v>
@@ -7059,7 +7038,7 @@
         <v>35</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
@@ -7071,42 +7050,42 @@
         <v>35</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AK38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP38" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AQ38" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AR38" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AS38" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AQ38" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AR38" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AS38" t="s" s="2">
-        <v>353</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7129,13 +7108,13 @@
         <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7186,7 +7165,7 @@
         <v>35</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>50</v>
@@ -7204,10 +7183,10 @@
         <v>35</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>35</v>
@@ -7230,10 +7209,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7357,10 +7336,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7486,14 +7465,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7515,16 +7494,16 @@
         <v>71</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>35</v>
@@ -7573,7 +7552,7 @@
         <v>35</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
@@ -7617,10 +7596,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7643,13 +7622,13 @@
         <v>51</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7700,7 +7679,7 @@
         <v>35</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>50</v>
@@ -7718,22 +7697,22 @@
         <v>35</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AO43" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP43" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AQ43" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AQ43" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AR43" t="s" s="2">
         <v>35</v>
@@ -7744,10 +7723,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7871,10 +7850,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -8000,10 +7979,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8029,14 +8008,14 @@
         <v>128</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>35</v>
@@ -8049,7 +8028,7 @@
         <v>35</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>35</v>
@@ -8064,10 +8043,10 @@
         <v>194</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>35</v>
@@ -8085,7 +8064,7 @@
         <v>35</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
@@ -8106,7 +8085,7 @@
         <v>35</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>35</v>
@@ -8115,13 +8094,13 @@
         <v>35</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AQ46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AR46" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AS46" t="s" s="2">
         <v>35</v>
@@ -8129,10 +8108,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8158,14 +8137,14 @@
         <v>128</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>35</v>
@@ -8178,7 +8157,7 @@
         <v>35</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>35</v>
@@ -8214,7 +8193,7 @@
         <v>35</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
@@ -8235,7 +8214,7 @@
         <v>35</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>35</v>
@@ -8250,18 +8229,18 @@
         <v>35</v>
       </c>
       <c r="AR47" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AS47" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8284,19 +8263,19 @@
         <v>35</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>35</v>
@@ -8345,7 +8324,7 @@
         <v>35</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
@@ -8366,7 +8345,7 @@
         <v>35</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>35</v>
@@ -8375,7 +8354,7 @@
         <v>35</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>35</v>
@@ -8389,10 +8368,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8415,19 +8394,19 @@
         <v>51</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>35</v>
@@ -8440,90 +8419,90 @@
         <v>35</v>
       </c>
       <c r="T49" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="U49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP49" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AG49" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
+      <c r="AQ49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR49" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AK49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AS49" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AQ49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR49" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AS49" t="s" s="2">
-        <v>413</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8546,19 +8525,19 @@
         <v>51</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>35</v>
@@ -8607,7 +8586,7 @@
         <v>35</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
@@ -8628,7 +8607,7 @@
         <v>35</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>35</v>
@@ -8643,7 +8622,7 @@
         <v>35</v>
       </c>
       <c r="AR50" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AS50" t="s" s="2">
         <v>35</v>
@@ -8651,10 +8630,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8677,19 +8656,19 @@
         <v>51</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="O51" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>35</v>
@@ -8738,7 +8717,7 @@
         <v>35</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
@@ -8759,7 +8738,7 @@
         <v>35</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>35</v>
@@ -8774,7 +8753,7 @@
         <v>35</v>
       </c>
       <c r="AR51" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AS51" t="s" s="2">
         <v>35</v>
@@ -8782,10 +8761,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8811,14 +8790,14 @@
         <v>64</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>35</v>
@@ -8831,7 +8810,7 @@
         <v>35</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>35</v>
@@ -8867,7 +8846,7 @@
         <v>35</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
@@ -8888,7 +8867,7 @@
         <v>35</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>35</v>
@@ -8903,18 +8882,18 @@
         <v>35</v>
       </c>
       <c r="AR52" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="AS52" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8937,17 +8916,17 @@
         <v>51</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>35</v>
@@ -8996,7 +8975,7 @@
         <v>35</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
@@ -9017,7 +8996,7 @@
         <v>35</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>35</v>
@@ -9032,18 +9011,18 @@
         <v>35</v>
       </c>
       <c r="AR53" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AS53" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9069,13 +9048,13 @@
         <v>106</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -9105,72 +9084,72 @@
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AA54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ54" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AK54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AR54" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AS54" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ54" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AR54" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AS54" t="s" s="2">
-        <v>457</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9193,16 +9172,16 @@
         <v>51</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9252,7 +9231,7 @@
         <v>35</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
@@ -9273,7 +9252,7 @@
         <v>35</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>35</v>
@@ -9296,10 +9275,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9423,10 +9402,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9552,14 +9531,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9581,16 +9560,16 @@
         <v>71</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>35</v>
@@ -9639,7 +9618,7 @@
         <v>35</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
@@ -9683,10 +9662,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9709,13 +9688,13 @@
         <v>35</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9766,7 +9745,7 @@
         <v>35</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
@@ -9781,28 +9760,28 @@
         <v>62</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AP59" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ59" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR59" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ59" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR59" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="AS59" t="s" s="2">
         <v>35</v>
@@ -9810,10 +9789,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9839,13 +9818,13 @@
         <v>211</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9874,10 +9853,10 @@
         <v>118</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>35</v>
@@ -9895,7 +9874,7 @@
         <v>35</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
@@ -9907,42 +9886,42 @@
         <v>35</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ60" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AK60" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AR60" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AS60" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ60" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AR60" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AS60" t="s" s="2">
-        <v>485</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9965,13 +9944,13 @@
         <v>51</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -10022,7 +10001,7 @@
         <v>35</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
@@ -10040,22 +10019,22 @@
         <v>35</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP61" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ61" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ61" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="AR61" t="s" s="2">
         <v>35</v>
@@ -10066,10 +10045,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10193,10 +10172,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10322,10 +10301,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10348,16 +10327,16 @@
         <v>51</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10407,7 +10386,7 @@
         <v>35</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>36</v>
@@ -10416,7 +10395,7 @@
         <v>50</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>62</v>
@@ -10428,33 +10407,33 @@
         <v>35</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AQ64" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR64" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AS64" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AQ64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR64" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AS64" t="s" s="2">
-        <v>505</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10477,23 +10456,23 @@
         <v>51</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>35</v>
       </c>
       <c r="Q65" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>35</v>
@@ -10538,7 +10517,7 @@
         <v>35</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>36</v>
@@ -10547,7 +10526,7 @@
         <v>50</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>62</v>
@@ -10559,33 +10538,33 @@
         <v>35</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AQ65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR65" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AS65" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP65" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AQ65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR65" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AS65" t="s" s="2">
-        <v>515</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10611,10 +10590,10 @@
         <v>211</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10645,72 +10624,72 @@
       </c>
       <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="AA66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
+      <c r="AN66" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="AK66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AO66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ66" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AR66" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AS66" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ66" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AR66" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AS66" t="s" s="2">
-        <v>525</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10736,16 +10715,16 @@
         <v>211</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="O67" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>35</v>
@@ -10774,7 +10753,7 @@
       </c>
       <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>35</v>
@@ -10792,7 +10771,7 @@
         <v>35</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>36</v>
@@ -10804,19 +10783,19 @@
         <v>35</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>35</v>
@@ -10825,21 +10804,21 @@
         <v>35</v>
       </c>
       <c r="AQ67" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AR67" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AS67" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10862,13 +10841,13 @@
         <v>35</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10919,7 +10898,7 @@
         <v>35</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>36</v>
@@ -10937,14 +10916,14 @@
         <v>35</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AM68" t="s" s="2">
+      <c r="AN68" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AN68" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="AO68" t="s" s="2">
         <v>35</v>
       </c>
@@ -10952,7 +10931,7 @@
         <v>35</v>
       </c>
       <c r="AQ68" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AR68" t="s" s="2">
         <v>35</v>
@@ -10963,10 +10942,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -11090,10 +11069,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11219,10 +11198,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11248,13 +11227,13 @@
         <v>64</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -11304,7 +11283,7 @@
         <v>35</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>36</v>
@@ -11313,7 +11292,7 @@
         <v>50</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>62</v>
@@ -11340,7 +11319,7 @@
         <v>35</v>
       </c>
       <c r="AR71" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AS71" t="s" s="2">
         <v>35</v>
@@ -11348,10 +11327,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11377,13 +11356,13 @@
         <v>93</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11412,10 +11391,10 @@
         <v>110</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>35</v>
@@ -11433,7 +11412,7 @@
         <v>35</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>36</v>
@@ -11477,10 +11456,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11506,13 +11485,13 @@
         <v>176</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11562,7 +11541,7 @@
         <v>35</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>36</v>
@@ -11583,7 +11562,7 @@
         <v>35</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>35</v>
@@ -11598,7 +11577,7 @@
         <v>35</v>
       </c>
       <c r="AR73" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AS73" t="s" s="2">
         <v>35</v>
@@ -11606,10 +11585,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11635,13 +11614,13 @@
         <v>64</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11691,7 +11670,7 @@
         <v>35</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>36</v>
@@ -11735,10 +11714,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11761,16 +11740,16 @@
         <v>35</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="N75" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11820,7 +11799,7 @@
         <v>35</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>36</v>
@@ -11838,25 +11817,25 @@
         <v>35</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP75" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ75" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="AM75" t="s" s="2">
+      <c r="AR75" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP75" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ75" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="AR75" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="AS75" t="s" s="2">
         <v>35</v>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:37:29+00:00</t>
+    <t>2023-09-01T08:10:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T08:10:44+00:00</t>
+    <t>2023-10-10T15:23:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AS$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AS$101</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4167" uniqueCount="723">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-10T15:23:36+00:00</t>
+    <t>2023-10-11T18:40:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1818,6 +1818,13 @@
     <t>May be identifiers or resources that caused the DocumentReference or referenced Document to be created.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:type}
+</t>
+  </si>
+  <si>
+    <t>Slice based on the type.coding.system pattern</t>
+  </si>
+  <si>
     <t>Composition.event.detail</t>
   </si>
   <si>
@@ -1831,6 +1838,452 @@
   </si>
   <si>
     <t>DocumentEntry.referenceIdList using CXi encoding for type when possible</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related:referenceIdList</t>
+  </si>
+  <si>
+    <t>referenceIdList</t>
+  </si>
+  <si>
+    <t>Données d’un « identifiant de référence » (referenceIdList)</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related:referenceIdList.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related:referenceIdList.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related:referenceIdList.reference</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related.reference</t>
+  </si>
+  <si>
+    <t>ele-1
+ref-1</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related:referenceIdList.type</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related.type</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related:referenceIdList.identifier</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related.identifier</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related:referenceIdList.identifier.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related.identifier.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related:referenceIdList.identifier.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related.identifier.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related:referenceIdList.identifier.use</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related.identifier.type</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related.identifier.type.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related.identifier.type.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.coding</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related.identifier.type.coding</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.coding.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related.identifier.type.coding.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.coding.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related.identifier.type.coding.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.coding.system</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related.identifier.type.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>urn:ietf:rfc:3986</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.coding.version</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related.identifier.type.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.coding.code</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related.identifier.type.coding.code</t>
+  </si>
+  <si>
+    <t>[CXi.5] Identifier Type Code : urn:ihe:iti:xds:2016:studyInstanceUID | urn:ihe:iti:xds:2013:order | urn:ihe:iti:xds:2013:accession</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.coding.display</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related.identifier.type.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related.identifier.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.text</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related.identifier.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related:referenceIdList.identifier.system</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related.identifier.system</t>
+  </si>
+  <si>
+    <t>[CXi.4.2] Assigning Authority (ce champs n'est pas présent systématiquement, il ne l'est dans le cas de studyInstanceUID notamment).</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related:referenceIdList.identifier.value</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related.identifier.value</t>
+  </si>
+  <si>
+    <t>[CXi.1] Accession number</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related:referenceIdList.identifier.period</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related.identifier.period</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related:referenceIdList.identifier.assigner</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related.identifier.assigner</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related:referenceIdList.display</t>
+  </si>
+  <si>
+    <t>DocumentReference.context.related.display</t>
   </si>
 </sst>
 </file>
@@ -2142,7 +2595,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AS75"/>
+  <dimension ref="A1:AS101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2151,9 +2604,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.62109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="53.62109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.57421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="81.62109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="67.2578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.7890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -2169,7 +2622,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="35.69140625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
@@ -2177,8 +2630,8 @@
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="120.0625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="11.08203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="13.69140625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="43.88671875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -11731,7 +12184,7 @@
         <v>37</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>35</v>
@@ -11787,16 +12240,16 @@
         <v>35</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>35</v>
+        <v>569</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>35</v>
+        <v>570</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>564</v>
@@ -11817,32 +12270,3398 @@
         <v>35</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AN75" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP75" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ75" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AR75" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AS75" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="D76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="AO75" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP75" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ75" t="s" s="2">
+      <c r="AM76" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="AR75" t="s" s="2">
+      <c r="AN76" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="AS75" t="s" s="2">
+      <c r="AO76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ76" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AR76" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AS76" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AS77" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AS78" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AS79" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AS80" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP81" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AQ81" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR81" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AS81" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AS82" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP83" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ83" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR83" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AS83" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP84" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AQ84" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR84" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AS84" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="P85" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP85" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AQ85" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR85" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AS85" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AS86" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP87" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ87" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR87" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AS87" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP88" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="AQ88" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR88" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AS88" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP89" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ89" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR89" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AS89" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP90" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ90" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR90" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AS90" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP91" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AQ91" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR91" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AS91" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP92" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="AQ92" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR92" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AS92" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="P93" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP93" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="AQ93" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR93" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AS93" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="P94" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP94" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="AQ94" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR94" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AS94" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="P95" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP95" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="AQ95" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR95" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AS95" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="P96" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP96" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="AQ96" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR96" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AS96" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO97" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP97" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="AQ97" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR97" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AS97" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP98" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="AQ98" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR98" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AS98" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="O99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP99" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="AQ99" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR99" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AS99" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP100" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="AQ100" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR100" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AS100" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP101" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ101" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR101" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AS101" t="s" s="2">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS75">
+  <autoFilter ref="A1:AS101">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11852,7 +15671,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI74">
+  <conditionalFormatting sqref="A2:AI100">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.1</t>
+    <t>3.1.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-11T18:40:37+00:00</t>
+    <t>2023-10-12T08:02:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T08:02:08+00:00</t>
+    <t>2023-10-12T08:32:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T08:32:10+00:00</t>
+    <t>2023-10-12T11:55:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T11:55:23+00:00</t>
+    <t>2023-10-12T12:01:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T12:01:54+00:00</t>
+    <t>2023-10-20T13:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T13:13:17+00:00</t>
+    <t>2023-11-02T15:09:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T15:20:04+00:00</t>
+    <t>2023-12-08T10:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
